--- a/data/1.edgelist_default.xlsx
+++ b/data/1.edgelist_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/NDSU/PhD Work/Research/IME Research/AI-Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF4D4C-1B00-DA45-B806-E154675D74DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE873F-3FF4-4A4A-A24C-31F2128B98E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="27540" windowHeight="16240" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="16240" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <t>To_Layer</t>
   </si>
   <si>
-    <t>Weights</t>
-  </si>
-  <si>
     <t xml:space="preserve">From_Node </t>
   </si>
   <si>
     <t xml:space="preserve">To_Node </t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A72335-3D0F-460A-A014-A4098355621D}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -452,19 +452,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
